--- a/medicine/Psychotrope/Liquor_Control_Board_of_Ontario/Liquor_Control_Board_of_Ontario.xlsx
+++ b/medicine/Psychotrope/Liquor_Control_Board_of_Ontario/Liquor_Control_Board_of_Ontario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Régie des alcools de l'Ontario (en anglais Liquor Control Board of Ontario), presque toujours appelée LCBO, est une société de la Couronne ayant pour mandat de faire le commerce des boissons alcoolisées dans la province canadienne de l'Ontario.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La LCBO est un acheteur, un distributeur et un vendeur de boissons alcoolisées qui dessert l'Ontario exclusivement.
 </t>
@@ -543,11 +557,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est créée en 1927 par le premier ministre ontarien Howard Ferguson (conservateur).
 La fondation de la LCBO avait pour but la régulation de la consommation de boissons alcoolisées, en particulier chez les mineurs. Comme le mandat de la LCBO était de contrôler la vente d'alcool, les magasins étaient d'un décor très conservateur jusqu'à récemment.
-En 2016, la LCBO lance son propre site internet de vente d'alcool au détail[1]. Le gouvernement d'Ontario prend le monopole sur la distribution de cannabis et crée une filiale de LCBO dédiée à cette activité[2].
+En 2016, la LCBO lance son propre site internet de vente d'alcool au détail. Le gouvernement d'Ontario prend le monopole sur la distribution de cannabis et crée une filiale de LCBO dédiée à cette activité.
 </t>
         </is>
       </c>
